--- a/db/CF.xlsx
+++ b/db/CF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim77\PycharmProjects\termiteDispersal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim77\Documents\GitHub\termite-flight-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1116F-CD7E-4E80-9CC9-BBCA71D53785}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28798038-745D-4421-8884-8DE86D1DEF88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A706" workbookViewId="0">
-      <selection activeCell="C716" sqref="A673:C716"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="F507" sqref="F507"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7807,50 +7807,490 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="673" x14ac:dyDescent="0.3"/>
-    <row r="674" x14ac:dyDescent="0.3"/>
-    <row r="675" x14ac:dyDescent="0.3"/>
-    <row r="676" x14ac:dyDescent="0.3"/>
-    <row r="677" x14ac:dyDescent="0.3"/>
-    <row r="678" x14ac:dyDescent="0.3"/>
-    <row r="679" x14ac:dyDescent="0.3"/>
-    <row r="680" x14ac:dyDescent="0.3"/>
-    <row r="681" x14ac:dyDescent="0.3"/>
-    <row r="682" x14ac:dyDescent="0.3"/>
-    <row r="683" x14ac:dyDescent="0.3"/>
-    <row r="684" x14ac:dyDescent="0.3"/>
-    <row r="685" x14ac:dyDescent="0.3"/>
-    <row r="686" x14ac:dyDescent="0.3"/>
-    <row r="687" x14ac:dyDescent="0.3"/>
-    <row r="688" x14ac:dyDescent="0.3"/>
-    <row r="689" x14ac:dyDescent="0.3"/>
-    <row r="690" x14ac:dyDescent="0.3"/>
-    <row r="691" x14ac:dyDescent="0.3"/>
-    <row r="692" x14ac:dyDescent="0.3"/>
-    <row r="693" x14ac:dyDescent="0.3"/>
-    <row r="694" x14ac:dyDescent="0.3"/>
-    <row r="695" x14ac:dyDescent="0.3"/>
-    <row r="696" x14ac:dyDescent="0.3"/>
-    <row r="697" x14ac:dyDescent="0.3"/>
-    <row r="698" x14ac:dyDescent="0.3"/>
-    <row r="699" x14ac:dyDescent="0.3"/>
-    <row r="700" x14ac:dyDescent="0.3"/>
-    <row r="701" x14ac:dyDescent="0.3"/>
-    <row r="702" x14ac:dyDescent="0.3"/>
-    <row r="703" x14ac:dyDescent="0.3"/>
-    <row r="704" x14ac:dyDescent="0.3"/>
-    <row r="705" x14ac:dyDescent="0.3"/>
-    <row r="706" x14ac:dyDescent="0.3"/>
-    <row r="707" x14ac:dyDescent="0.3"/>
-    <row r="708" x14ac:dyDescent="0.3"/>
-    <row r="709" x14ac:dyDescent="0.3"/>
-    <row r="710" x14ac:dyDescent="0.3"/>
-    <row r="711" x14ac:dyDescent="0.3"/>
-    <row r="712" x14ac:dyDescent="0.3"/>
-    <row r="713" x14ac:dyDescent="0.3"/>
-    <row r="714" x14ac:dyDescent="0.3"/>
-    <row r="715" x14ac:dyDescent="0.3"/>
-    <row r="716" x14ac:dyDescent="0.3"/>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>22.75611</v>
+      </c>
+      <c r="B673">
+        <v>121.14946999999999</v>
+      </c>
+      <c r="C673" s="2">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>22.75611</v>
+      </c>
+      <c r="B674">
+        <v>121.14946999999999</v>
+      </c>
+      <c r="C674" s="2">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>22.818999999999999</v>
+      </c>
+      <c r="B675">
+        <v>121.08147</v>
+      </c>
+      <c r="C675" s="2">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>24.698699999999999</v>
+      </c>
+      <c r="B676">
+        <v>121.00172000000001</v>
+      </c>
+      <c r="C676" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>22.73113</v>
+      </c>
+      <c r="B677">
+        <v>121.12924</v>
+      </c>
+      <c r="C677" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>22.75611</v>
+      </c>
+      <c r="B678">
+        <v>121.14946999999999</v>
+      </c>
+      <c r="C678" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>24.124919999999999</v>
+      </c>
+      <c r="B679">
+        <v>120.67534000000001</v>
+      </c>
+      <c r="C679" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>22.77074</v>
+      </c>
+      <c r="B680">
+        <v>121.13334999999999</v>
+      </c>
+      <c r="C680" s="2">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>24.124929999999999</v>
+      </c>
+      <c r="B681">
+        <v>120.67677999999999</v>
+      </c>
+      <c r="C681" s="2">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>22.75611</v>
+      </c>
+      <c r="B682">
+        <v>121.14946999999999</v>
+      </c>
+      <c r="C682" s="2">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>24.252120000000001</v>
+      </c>
+      <c r="B683">
+        <v>120.72348</v>
+      </c>
+      <c r="C683" s="2">
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>23.978449999999999</v>
+      </c>
+      <c r="B684">
+        <v>121.60153</v>
+      </c>
+      <c r="C684" s="2">
+        <v>45430</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>22.815270000000002</v>
+      </c>
+      <c r="B685">
+        <v>121.0868</v>
+      </c>
+      <c r="C685" s="2">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>22.815259999999999</v>
+      </c>
+      <c r="B686">
+        <v>121.08678999999999</v>
+      </c>
+      <c r="C686" s="2">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>24.952839999999998</v>
+      </c>
+      <c r="B687">
+        <v>121.24148</v>
+      </c>
+      <c r="C687" s="2">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>25.011410000000001</v>
+      </c>
+      <c r="B688">
+        <v>121.46184</v>
+      </c>
+      <c r="C688" s="2">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>25.039159999999999</v>
+      </c>
+      <c r="B689">
+        <v>121.57771</v>
+      </c>
+      <c r="C689" s="2">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>22.815270000000002</v>
+      </c>
+      <c r="B690">
+        <v>121.0868</v>
+      </c>
+      <c r="C690" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>24.111889999999999</v>
+      </c>
+      <c r="B691">
+        <v>120.68003</v>
+      </c>
+      <c r="C691" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>24.114339999999999</v>
+      </c>
+      <c r="B692">
+        <v>120.69037</v>
+      </c>
+      <c r="C692" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>24.12771</v>
+      </c>
+      <c r="B693">
+        <v>120.67771999999999</v>
+      </c>
+      <c r="C693" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>24.929600000000001</v>
+      </c>
+      <c r="B694">
+        <v>121.2054</v>
+      </c>
+      <c r="C694" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>24.120979999999999</v>
+      </c>
+      <c r="B695">
+        <v>120.67574</v>
+      </c>
+      <c r="C695" s="2">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>24.129480000000001</v>
+      </c>
+      <c r="B696">
+        <v>120.68164</v>
+      </c>
+      <c r="C696" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>24.24579</v>
+      </c>
+      <c r="B697">
+        <v>120.72234</v>
+      </c>
+      <c r="C697" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>24.12762</v>
+      </c>
+      <c r="B698">
+        <v>120.67412</v>
+      </c>
+      <c r="C698" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>25.171980000000001</v>
+      </c>
+      <c r="B699">
+        <v>121.44337</v>
+      </c>
+      <c r="C699" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>24.11946</v>
+      </c>
+      <c r="B700">
+        <v>120.66585000000001</v>
+      </c>
+      <c r="C700" s="2">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>24.89376</v>
+      </c>
+      <c r="B701">
+        <v>121.16175</v>
+      </c>
+      <c r="C701" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>22.815270000000002</v>
+      </c>
+      <c r="B702">
+        <v>121.08678999999999</v>
+      </c>
+      <c r="C702" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>22.815300000000001</v>
+      </c>
+      <c r="B703">
+        <v>121.08676</v>
+      </c>
+      <c r="C703" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>24.141300000000001</v>
+      </c>
+      <c r="B704">
+        <v>120.6337</v>
+      </c>
+      <c r="C704" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>22.767209999999999</v>
+      </c>
+      <c r="B705">
+        <v>121.13019</v>
+      </c>
+      <c r="C705" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>24.958400000000001</v>
+      </c>
+      <c r="B706">
+        <v>121.27081</v>
+      </c>
+      <c r="C706" s="2">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>22.77074</v>
+      </c>
+      <c r="B707">
+        <v>121.13334999999999</v>
+      </c>
+      <c r="C707" s="2">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>22.801089999999999</v>
+      </c>
+      <c r="B708">
+        <v>121.09462000000001</v>
+      </c>
+      <c r="C708" s="2">
+        <v>45438</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>24.075130000000001</v>
+      </c>
+      <c r="B709">
+        <v>120.55226</v>
+      </c>
+      <c r="C709" s="2">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>24.075089999999999</v>
+      </c>
+      <c r="B710">
+        <v>120.55226</v>
+      </c>
+      <c r="C710" s="2">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>24.26229</v>
+      </c>
+      <c r="B711">
+        <v>120.72901</v>
+      </c>
+      <c r="C711" s="2">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>24.24653</v>
+      </c>
+      <c r="B712">
+        <v>120.72226000000001</v>
+      </c>
+      <c r="C712" s="2">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>24.129899999999999</v>
+      </c>
+      <c r="B713">
+        <v>120.68389999999999</v>
+      </c>
+      <c r="C713" s="2">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>25.04926</v>
+      </c>
+      <c r="B714">
+        <v>121.19394</v>
+      </c>
+      <c r="C714" s="2">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>24.838660000000001</v>
+      </c>
+      <c r="B715">
+        <v>121.01026</v>
+      </c>
+      <c r="C715" s="2">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>24.604890000000001</v>
+      </c>
+      <c r="B716">
+        <v>120.80661000000001</v>
+      </c>
+      <c r="C716" s="2">
+        <v>45443</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C716">
     <sortCondition ref="C1"/>
